--- a/pokemon_LeagueTable/帮战座位表20250412(中文版本).xlsx
+++ b/pokemon_LeagueTable/帮战座位表20250412(中文版本).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjhmy\Documents\GitHub\Pokemon\pokemon_LeagueTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9561FE56-505D-405B-BDBB-BFD0A548E1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45E0B74-7680-4DA7-8834-CD4978CBCA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3828" yWindow="6552" windowWidth="26880" windowHeight="11928" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="山海" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,24 +29,11 @@
     <sheet name="赢4.27下" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="609">
   <si>
     <t>山海帮战座位表</t>
   </si>
@@ -321,30 +308,6 @@
     <t>觅云间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小精灵帮战座位表</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="4"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（04.05 20:00-20:30）</t>
-    </r>
-  </si>
-  <si>
     <t>击杀王、拆塔王、重伤王会特殊字体显示哦!</t>
   </si>
   <si>
@@ -399,13 +362,7 @@
     <t>点心 花田约</t>
   </si>
   <si>
-    <t>纯甜 花约</t>
-  </si>
-  <si>
     <t>尔棠 奶约</t>
-  </si>
-  <si>
-    <t>云绵绵 奶约</t>
   </si>
   <si>
     <t>又眠 奶约</t>
@@ -465,9 +422,6 @@
     <t>虚荣 清泉 输出绝</t>
   </si>
   <si>
-    <t>晚轻 花约 开麦</t>
-  </si>
-  <si>
     <t>丸梓 花田</t>
   </si>
   <si>
@@ -512,9 +466,6 @@
       </rPr>
       <t>心脏</t>
     </r>
-  </si>
-  <si>
-    <t>迟烟烟 cw（小诙谐）</t>
   </si>
   <si>
     <t>🍪饼饼大王</t>
@@ -604,12 +555,6 @@
     <t>社恐碎梦</t>
   </si>
   <si>
-    <t>水晶 逼急眼也凿</t>
-  </si>
-  <si>
-    <t>读懂鱿鱼 逼急眼也凿</t>
-  </si>
-  <si>
     <t>净化 雄狮</t>
   </si>
   <si>
@@ -628,9 +573,6 @@
     <t>救救桃栀 太剑</t>
   </si>
   <si>
-    <t>人欺 太剑 推塔</t>
-  </si>
-  <si>
     <t>青古</t>
   </si>
   <si>
@@ -644,9 +586,6 @@
   </si>
   <si>
     <t>乱杀</t>
-  </si>
-  <si>
-    <t>cw龙</t>
   </si>
   <si>
     <t>庄周 太极 预热大师</t>
@@ -718,19 +657,10 @@
     <t>不满</t>
   </si>
   <si>
-    <t>银色飞行船</t>
-  </si>
-  <si>
-    <t>赖小羊 山炮</t>
-  </si>
-  <si>
     <t>臣服 腾龙 牺牲</t>
   </si>
   <si>
     <t>遥遥书</t>
-  </si>
-  <si>
-    <t>cw旅树</t>
   </si>
   <si>
     <t>浮海 腾龙 牺牲</t>
@@ -2066,12 +1996,89 @@
   <si>
     <t>得闲饮茶 47</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小精灵帮战座位表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color theme="4"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（04.12 20:00-20:30）</t>
+    </r>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁约 纯d潮</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw 银色飞行船</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw 旅树</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw 绯村剑心</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>人欺 太剑 推塔</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶 飞剑 推塔</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>读懂鱿鱼</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚轻 花约</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>云绵绵 奶绝</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw 迟烟烟（诙谐强势回归）</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>cw 问鼎星海 出生王</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖小羊</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯甜 奶约</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="53">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2266,13 +2273,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="楷体"/>
@@ -2451,6 +2451,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -2586,7 +2602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2687,21 +2703,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2788,7 +2789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2981,13 +2982,7 @@
     <xf numFmtId="0" fontId="27" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,7 +2994,7 @@
     <xf numFmtId="0" fontId="27" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3017,19 +3012,19 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3041,10 +3036,10 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3062,7 +3057,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3074,16 +3069,16 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3100,9 +3095,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3128,40 +3120,40 @@
     <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -3176,10 +3168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,6 +3179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3200,34 +3195,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3239,25 +3240,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3269,44 +3318,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3873,210 +3886,210 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="114" customWidth="1"/>
-    <col min="2" max="16382" width="12.88671875" style="115" customWidth="1"/>
-    <col min="16383" max="16384" width="12.88671875" style="115"/>
+    <col min="1" max="1" width="8.33203125" style="111" customWidth="1"/>
+    <col min="2" max="16382" width="12.88671875" style="112" customWidth="1"/>
+    <col min="16383" max="16384" width="12.88671875" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="145"/>
-    </row>
-    <row r="2" spans="1:14" s="114" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116" t="s">
+      <c r="A1" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="152"/>
+    </row>
+    <row r="2" spans="1:14" s="111" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="116"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="113"/>
     </row>
     <row r="3" spans="1:14" ht="27" customHeight="1">
-      <c r="A3" s="116">
+      <c r="A3" s="113">
         <v>1</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="s">
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="118" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="118" t="s">
+      <c r="J3" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="131" t="s">
+      <c r="K3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="131"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="1:14" ht="27" customHeight="1">
-      <c r="A4" s="116">
+      <c r="A4" s="113">
         <v>2</v>
       </c>
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="117"/>
-      <c r="E4" s="119" t="s">
+      <c r="D4" s="114"/>
+      <c r="E4" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="119" t="s">
+      <c r="F4" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="117" t="s">
+      <c r="G4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="122" t="s">
+      <c r="K4" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="122"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="1:14" ht="27" customHeight="1">
-      <c r="A5" s="116">
+      <c r="A5" s="113">
         <v>3</v>
       </c>
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="119" t="s">
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="120" t="s">
+      <c r="G5" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117" t="s">
+      <c r="I5" s="114"/>
+      <c r="J5" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="132"/>
-      <c r="L5" s="122" t="s">
+      <c r="K5" s="129"/>
+      <c r="L5" s="119" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="27" customHeight="1">
-      <c r="A6" s="116">
+      <c r="A6" s="113">
         <v>4</v>
       </c>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="121" t="s">
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="115" t="s">
+      <c r="F6" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="122"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117" t="s">
+      <c r="G6" s="119"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="1:14" ht="27" customHeight="1">
-      <c r="A7" s="116">
+      <c r="A7" s="113">
         <v>5</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="121"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1">
-      <c r="A8" s="116">
+      <c r="A8" s="113">
         <v>6</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="123" t="s">
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:14" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="124">
+      <c r="A9" s="121">
         <v>7</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="147" t="s">
         <v>33</v>
       </c>
@@ -4087,32 +4100,32 @@
       <c r="L9" s="149"/>
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="124">
+      <c r="A10" s="121">
         <v>8</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="150" t="s">
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="152"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="156"/>
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="124">
+      <c r="A11" s="121">
         <v>9</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
       <c r="G11" s="147" t="s">
         <v>35</v>
       </c>
@@ -4124,521 +4137,521 @@
     </row>
     <row r="12" spans="1:14" customFormat="1" ht="27" customHeight="1"/>
     <row r="13" spans="1:14" ht="27" customHeight="1">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="130" t="s">
+      <c r="E13" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="130" t="s">
+      <c r="G13" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="130" t="s">
+      <c r="H13" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="132"/>
     </row>
     <row r="14" spans="1:14" ht="27" customHeight="1">
-      <c r="A14" s="114">
+      <c r="A14" s="111">
         <v>1</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="115" t="s">
+      <c r="E14" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="115" t="s">
+      <c r="F14" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="115" t="s">
+      <c r="G14" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="136"/>
+      <c r="I14" s="133"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="137"/>
+      <c r="N14" s="134"/>
     </row>
     <row r="15" spans="1:14" ht="27" customHeight="1">
-      <c r="A15" s="114">
+      <c r="A15" s="111">
         <v>2</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="123" t="s">
+      <c r="F15" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="115" t="s">
+      <c r="G15" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="123" t="s">
+      <c r="H15" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="136"/>
+      <c r="I15" s="133"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" s="137"/>
+      <c r="N15" s="134"/>
     </row>
     <row r="16" spans="1:14" ht="27" customHeight="1">
-      <c r="A16" s="114">
+      <c r="A16" s="111">
         <v>3</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="123" t="s">
+      <c r="F16" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="115" t="s">
+      <c r="H16" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="138" t="s">
+      <c r="I16" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="123" t="s">
+      <c r="L16" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="114" t="s">
+      <c r="M16" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="139"/>
+      <c r="N16" s="136"/>
     </row>
     <row r="17" spans="1:14" ht="27" customHeight="1">
-      <c r="A17" s="114">
+      <c r="A17" s="111">
         <v>4</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="123" t="s">
+      <c r="F17" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="115" t="s">
+      <c r="G17" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="138" t="s">
+      <c r="I17" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="115" t="s">
+      <c r="J17" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="115" t="s">
+      <c r="K17" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="115" t="s">
+      <c r="L17" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="115" t="s">
+      <c r="M17" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="N17" s="139" t="s">
+      <c r="N17" s="136" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="27" customHeight="1">
-      <c r="A18" s="114">
+      <c r="A18" s="111">
         <v>5</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="123" t="s">
+      <c r="E18" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="G18" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="115" t="s">
+      <c r="H18" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="138" t="s">
+      <c r="I18" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="K18" s="115" t="s">
+      <c r="K18" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="115" t="s">
+      <c r="L18" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="115" t="s">
+      <c r="M18" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="N18" s="139" t="s">
+      <c r="N18" s="136" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="27" customHeight="1">
-      <c r="A19" s="114">
+      <c r="A19" s="111">
         <v>6</v>
       </c>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="115" t="s">
+      <c r="F19" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="115" t="s">
+      <c r="H19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="138" t="s">
+      <c r="I19" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="115" t="s">
+      <c r="J19" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="K19" s="115" t="s">
+      <c r="K19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="115" t="s">
+      <c r="L19" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="115" t="s">
+      <c r="M19" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="139" t="s">
+      <c r="N19" s="136" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="27" customHeight="1">
-      <c r="A20" s="114">
+      <c r="A20" s="111">
         <v>7</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="123" t="s">
+      <c r="G20" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="115" t="s">
+      <c r="H20" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="138" t="s">
+      <c r="I20" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="115" t="s">
+      <c r="J20" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="115" t="s">
+      <c r="K20" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="115" t="s">
+      <c r="L20" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="M20" s="115" t="s">
+      <c r="M20" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="N20" s="139"/>
+      <c r="N20" s="136"/>
     </row>
     <row r="21" spans="1:14" ht="27" customHeight="1">
-      <c r="A21" s="114">
+      <c r="A21" s="111">
         <v>8</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="115" t="s">
+      <c r="F21" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="123" t="s">
+      <c r="G21" s="120" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="115" t="s">
+      <c r="H21" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="138" t="s">
+      <c r="I21" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="J21" s="115" t="s">
+      <c r="J21" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="115" t="s">
+      <c r="K21" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="L21" s="115" t="s">
+      <c r="L21" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="M21" s="115" t="s">
+      <c r="M21" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="139"/>
+      <c r="N21" s="136"/>
     </row>
     <row r="22" spans="1:14" ht="27" customHeight="1">
-      <c r="A22" s="114">
+      <c r="A22" s="111">
         <v>9</v>
       </c>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="115" t="s">
+      <c r="F22" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="115" t="s">
+      <c r="H22" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="138" t="s">
+      <c r="I22" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="115" t="s">
+      <c r="J22" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="115" t="s">
+      <c r="K22" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="115" t="s">
+      <c r="L22" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="115" t="s">
+      <c r="M22" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="N22" s="139"/>
+      <c r="N22" s="136"/>
     </row>
     <row r="23" spans="1:14" ht="27" customHeight="1">
-      <c r="A23" s="114">
+      <c r="A23" s="111">
         <v>10</v>
       </c>
-      <c r="D23" s="115" t="s">
+      <c r="D23" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="115" t="s">
+      <c r="E23" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="115" t="s">
+      <c r="F23" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="115" t="s">
+      <c r="G23" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="138" t="s">
+      <c r="I23" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="115" t="s">
+      <c r="J23" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="115" t="s">
+      <c r="K23" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="115" t="s">
+      <c r="L23" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="M23" s="115" t="s">
+      <c r="M23" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="139"/>
+      <c r="N23" s="136"/>
     </row>
     <row r="24" spans="1:14" ht="27" customHeight="1">
-      <c r="A24" s="114">
+      <c r="A24" s="111">
         <v>11</v>
       </c>
-      <c r="D24" s="123" t="s">
+      <c r="D24" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="115" t="s">
+      <c r="G24" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="138" t="s">
+      <c r="I24" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="115" t="s">
+      <c r="J24" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="K24" s="115" t="s">
+      <c r="K24" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="L24" s="115" t="s">
+      <c r="L24" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="N24" s="139"/>
+      <c r="N24" s="136"/>
     </row>
     <row r="25" spans="1:14" ht="27" customHeight="1">
-      <c r="A25" s="114">
+      <c r="A25" s="111">
         <v>12</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="G25" s="123" t="s">
+      <c r="D25" s="120"/>
+      <c r="G25" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="140" t="s">
+      <c r="I25" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="141" t="s">
+      <c r="J25" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="141" t="s">
+      <c r="K25" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="141" t="s">
+      <c r="L25" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="M25" s="141"/>
-      <c r="N25" s="142"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="139"/>
     </row>
     <row r="26" spans="1:14" ht="27" customHeight="1">
-      <c r="A26" s="114">
+      <c r="A26" s="111">
         <v>13</v>
       </c>
-      <c r="G26" s="115" t="s">
+      <c r="G26" s="112" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="27" customHeight="1">
-      <c r="A27" s="114">
+      <c r="A27" s="111">
         <v>14</v>
       </c>
-      <c r="G27" s="115" t="s">
+      <c r="G27" s="112" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="27" customHeight="1">
-      <c r="A28" s="114">
+      <c r="A28" s="111">
         <v>15</v>
       </c>
-      <c r="G28" s="115" t="s">
+      <c r="G28" s="112" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="27" customHeight="1">
-      <c r="A29" s="114">
+      <c r="A29" s="111">
         <v>16</v>
       </c>
-      <c r="G29" s="115" t="s">
+      <c r="G29" s="112" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="27" customHeight="1">
-      <c r="A30" s="114">
+      <c r="A30" s="111">
         <v>17</v>
       </c>
-      <c r="G30" s="115" t="s">
+      <c r="G30" s="112" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="27" customHeight="1">
-      <c r="A31" s="114">
+      <c r="A31" s="111">
         <v>18</v>
       </c>
-      <c r="G31" s="115" t="s">
+      <c r="G31" s="112" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="27" customHeight="1">
-      <c r="A32" s="114">
+      <c r="A32" s="111">
         <v>19</v>
       </c>
-      <c r="G32" s="115" t="s">
+      <c r="G32" s="112" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" customHeight="1">
-      <c r="A33" s="114">
+      <c r="A33" s="111">
         <v>20</v>
       </c>
-      <c r="G33" s="115" t="s">
+      <c r="G33" s="112" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4651,7 +4664,7 @@
     <mergeCell ref="G9:L9"/>
     <mergeCell ref="G10:L10"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4687,25 +4700,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="189" t="s">
-        <v>479</v>
-      </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
+      <c r="B1" s="193" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="192" t="s">
-        <v>480</v>
-      </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="194"/>
+      <c r="K1" s="196" t="s">
+        <v>468</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -4713,66 +4726,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C3" s="6">
         <v>7</v>
@@ -4792,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -4824,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C4" s="6">
         <v>7</v>
@@ -4844,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -4876,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -4896,7 +4909,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -4948,7 +4961,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -5000,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -5032,7 +5045,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -5052,7 +5065,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -5104,7 +5117,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -5122,7 +5135,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6">
         <v>4</v>
@@ -5136,7 +5149,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -5156,7 +5169,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -5182,7 +5195,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -5202,7 +5215,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
@@ -5228,7 +5241,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -5248,7 +5261,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -5294,7 +5307,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -5322,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -5342,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -5368,7 +5381,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -5388,7 +5401,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -5436,7 +5449,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -5462,7 +5475,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -5482,7 +5495,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -5508,7 +5521,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -5528,7 +5541,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -5578,7 +5591,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -5600,7 +5613,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -5622,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -5666,7 +5679,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -5712,7 +5725,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -5804,7 +5817,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -5850,7 +5863,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -5874,7 +5887,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -5944,7 +5957,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -5968,7 +5981,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -6080,7 +6093,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -6146,7 +6159,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -6190,7 +6203,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -6215,7 +6228,7 @@
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -6251,25 +6264,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="189" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
+      <c r="B1" s="193" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="192" t="s">
-        <v>500</v>
-      </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="194"/>
+      <c r="K1" s="196" t="s">
+        <v>488</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -6277,66 +6290,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C3" s="6">
         <v>41</v>
@@ -6356,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="L3" s="6">
         <v>10</v>
@@ -6408,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="L4" s="6">
         <v>13</v>
@@ -6440,7 +6453,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C5" s="6">
         <v>29</v>
@@ -6460,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="L5" s="6">
         <v>7</v>
@@ -6512,7 +6525,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="L6" s="6">
         <v>22</v>
@@ -6556,7 +6569,7 @@
         <v>1153</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -6564,7 +6577,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="L7" s="6">
         <v>15</v>
@@ -6616,7 +6629,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="L8" s="6">
         <v>11</v>
@@ -6648,7 +6661,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C9" s="6">
         <v>14</v>
@@ -6668,7 +6681,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="L9" s="6">
         <v>26</v>
@@ -6686,7 +6699,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6">
         <v>2</v>
@@ -6700,7 +6713,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C10" s="6">
         <v>26</v>
@@ -6720,7 +6733,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="L10" s="6">
         <v>19</v>
@@ -6766,7 +6779,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="L11" s="6">
         <v>18</v>
@@ -6792,7 +6805,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C12" s="6">
         <v>21</v>
@@ -6812,7 +6825,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="L12" s="6">
         <v>13</v>
@@ -6858,7 +6871,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="L13" s="6">
         <v>12</v>
@@ -6884,7 +6897,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C14" s="6">
         <v>17</v>
@@ -6904,7 +6917,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="L14" s="6">
         <v>9</v>
@@ -6930,7 +6943,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
@@ -6950,7 +6963,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="L15" s="6">
         <v>15</v>
@@ -6976,7 +6989,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C16" s="6">
         <v>18</v>
@@ -6996,7 +7009,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L16" s="6">
         <v>19</v>
@@ -7042,7 +7055,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="L17" s="6">
         <v>9</v>
@@ -7070,7 +7083,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C18" s="6">
         <v>10</v>
@@ -7090,7 +7103,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="L18" s="6">
         <v>9</v>
@@ -7136,7 +7149,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L19" s="6">
         <v>9</v>
@@ -7164,7 +7177,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C20" s="6">
         <v>9</v>
@@ -7184,7 +7197,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="L20" s="6">
         <v>4</v>
@@ -7210,7 +7223,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C21" s="6">
         <v>15</v>
@@ -7230,7 +7243,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="L21" s="6">
         <v>10</v>
@@ -7276,7 +7289,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="L22" s="6">
         <v>11</v>
@@ -7302,7 +7315,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C23" s="6">
         <v>11</v>
@@ -7322,7 +7335,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="L23" s="6">
         <v>1</v>
@@ -7368,7 +7381,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="L24" s="6">
         <v>7</v>
@@ -7394,7 +7407,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
@@ -7414,7 +7427,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="L25" s="6">
         <v>4</v>
@@ -7460,7 +7473,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -7506,7 +7519,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L27" s="6">
         <v>10</v>
@@ -7552,7 +7565,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="L28" s="6">
         <v>5</v>
@@ -7598,7 +7611,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="L29" s="6">
         <v>6</v>
@@ -7644,7 +7657,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="L30" s="6">
         <v>4</v>
@@ -7670,7 +7683,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C31" s="6">
         <v>7</v>
@@ -7690,7 +7703,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="L31" s="6">
         <v>5</v>
@@ -7736,7 +7749,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -7762,7 +7775,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -7782,7 +7795,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="L33" s="6">
         <v>2</v>
@@ -7808,7 +7821,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C34" s="6">
         <v>6</v>
@@ -7828,7 +7841,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -7856,7 +7869,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C35" s="6">
         <v>6</v>
@@ -7878,7 +7891,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="L35" s="6">
         <v>1</v>
@@ -7926,7 +7939,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="L36" s="6">
         <v>2</v>
@@ -7976,7 +7989,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -8026,7 +8039,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -8076,7 +8089,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -8104,7 +8117,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -8126,7 +8139,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -8154,7 +8167,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -8176,7 +8189,7 @@
         <v>39</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
@@ -8204,7 +8217,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -8252,7 +8265,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -8324,7 +8337,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -8348,7 +8361,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -8469,7 +8482,7 @@
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -8505,25 +8518,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="189" t="s">
-        <v>499</v>
-      </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
+      <c r="B1" s="193" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="192" t="s">
-        <v>543</v>
-      </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="194"/>
+      <c r="K1" s="196" t="s">
+        <v>531</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -8531,66 +8544,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C3" s="6">
         <v>14</v>
@@ -8610,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="L3" s="6">
         <v>11</v>
@@ -8642,7 +8655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -8662,7 +8675,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -8714,7 +8727,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="L5" s="6">
         <v>6</v>
@@ -8746,7 +8759,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -8766,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
@@ -8818,7 +8831,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
@@ -8870,7 +8883,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="L8" s="6">
         <v>1</v>
@@ -8902,7 +8915,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -8922,7 +8935,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -8940,7 +8953,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6">
         <v>3</v>
@@ -8954,7 +8967,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
@@ -8974,7 +8987,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -9020,7 +9033,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="L11" s="6">
         <v>7</v>
@@ -9046,7 +9059,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -9066,7 +9079,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -9092,7 +9105,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -9114,7 +9127,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="L13" s="6">
         <v>2</v>
@@ -9160,7 +9173,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
@@ -9186,7 +9199,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
@@ -9206,7 +9219,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="L15" s="6">
         <v>2</v>
@@ -9252,7 +9265,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="L16" s="6">
         <v>2</v>
@@ -9300,7 +9313,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L17" s="6">
         <v>1</v>
@@ -9326,7 +9339,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -9346,7 +9359,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="L18" s="6">
         <v>1</v>
@@ -9372,7 +9385,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -9392,7 +9405,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -9438,7 +9451,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="L20" s="6">
         <v>2</v>
@@ -9464,7 +9477,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -9484,7 +9497,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -9510,7 +9523,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -9532,7 +9545,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="L22" s="6">
         <v>0</v>
@@ -9558,7 +9571,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -9578,7 +9591,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -9606,7 +9619,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -9626,7 +9639,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -9674,7 +9687,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -9722,7 +9735,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -9770,7 +9783,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -9816,7 +9829,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -9844,7 +9857,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -9864,7 +9877,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="L29" s="6">
         <v>0</v>
@@ -9912,7 +9925,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -9940,7 +9953,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -9960,7 +9973,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="L31" s="6">
         <v>0</v>
@@ -10006,7 +10019,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -10034,7 +10047,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -10054,7 +10067,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -10100,7 +10113,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -10146,7 +10159,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -10208,7 +10221,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -10244,7 +10257,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -10464,7 +10477,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -10488,7 +10501,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -10512,7 +10525,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -10536,7 +10549,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -10561,7 +10574,7 @@
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -10597,25 +10610,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="189" t="s">
-        <v>575</v>
-      </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
+      <c r="B1" s="193" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="192" t="s">
-        <v>576</v>
-      </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="194"/>
+      <c r="K1" s="196" t="s">
+        <v>564</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -10623,66 +10636,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -10698,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -10726,7 +10739,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -10742,7 +10755,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -10770,7 +10783,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -10786,7 +10799,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -10814,7 +10827,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -10830,7 +10843,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -10874,7 +10887,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -10902,7 +10915,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -10918,7 +10931,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -10946,7 +10959,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10962,7 +10975,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -10976,7 +10989,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6">
         <v>11</v>
@@ -10990,7 +11003,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -11006,7 +11019,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -11044,7 +11057,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -11066,7 +11079,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -11082,7 +11095,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -11104,7 +11117,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -11120,7 +11133,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -11160,7 +11173,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -11184,7 +11197,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -11200,7 +11213,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -11238,7 +11251,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -11278,7 +11291,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -11300,7 +11313,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -11316,7 +11329,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -11354,7 +11367,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -11376,7 +11389,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -11392,7 +11405,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -11416,7 +11429,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -11432,7 +11445,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -11456,7 +11469,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -11472,7 +11485,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -11510,7 +11523,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -11548,7 +11561,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -11586,7 +11599,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -11610,7 +11623,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -11674,7 +11687,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -11738,7 +11751,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -11770,7 +11783,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -11802,7 +11815,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -11834,7 +11847,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -11866,7 +11879,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -11930,7 +11943,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -11962,7 +11975,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -11994,7 +12007,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -12058,7 +12071,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -12090,7 +12103,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -12108,7 +12121,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -12144,7 +12157,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -12162,7 +12175,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -12198,7 +12211,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -12216,7 +12229,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -12256,7 +12269,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -12276,7 +12289,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -12316,7 +12329,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="8"/>
@@ -12356,7 +12369,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -12376,7 +12389,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -12394,7 +12407,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -12415,7 +12428,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -12436,7 +12449,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -12454,7 +12467,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -12474,7 +12487,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -12507,7 +12520,7 @@
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -12543,25 +12556,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="189" t="s">
-        <v>605</v>
-      </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
+      <c r="B1" s="193" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="192" t="s">
-        <v>606</v>
-      </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="194"/>
+      <c r="K1" s="196" t="s">
+        <v>594</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -12569,59 +12582,59 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
@@ -12814,7 +12827,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -14023,7 +14036,7 @@
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -14035,7 +14048,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A13" sqref="A13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="31.95" customHeight="1"/>
@@ -14044,12 +14057,12 @@
     <col min="2" max="2" width="25" style="40" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="32" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="40" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="40" customWidth="1"/>
     <col min="8" max="8" width="24.21875" style="40" customWidth="1"/>
     <col min="9" max="9" width="33.88671875" style="40" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" style="40" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.77734375" style="40" customWidth="1"/>
     <col min="12" max="12" width="77.77734375" style="56" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="56" customWidth="1"/>
@@ -14061,85 +14074,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" ht="43.95" customHeight="1">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="170" t="s">
+        <v>595</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:17" s="54" customFormat="1" ht="31.95" customHeight="1">
       <c r="A2" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="157" t="s">
+      <c r="E2" s="173"/>
+      <c r="F2" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="157"/>
-      <c r="F2" s="158" t="s">
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="160" t="s">
+      <c r="J2" s="176"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="88" t="s">
+      <c r="M2" s="87"/>
+      <c r="N2" s="88" t="s">
         <v>98</v>
-      </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90" t="s">
-        <v>99</v>
       </c>
       <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:17" s="54" customFormat="1" ht="31.95" customHeight="1">
       <c r="A3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="C3" s="164"/>
+      <c r="D3" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="156"/>
-      <c r="D3" s="163" t="s">
+      <c r="E3" s="166"/>
+      <c r="F3" s="167" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="164"/>
-      <c r="F3" s="165" t="s">
+      <c r="G3" s="167"/>
+      <c r="H3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="165"/>
-      <c r="H3" s="57" t="s">
+      <c r="I3" s="168" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="J3" s="169"/>
+      <c r="K3" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="162"/>
-      <c r="K3" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="88"/>
       <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
@@ -14147,42 +14160,42 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="E4" s="146" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="G4" s="146" t="s">
+        <v>604</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="I4" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="J4" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="K4" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="L4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
+      <c r="P4" s="92" t="s">
         <v>115</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="169" t="s">
-        <v>117</v>
-      </c>
-      <c r="M4" s="92"/>
-      <c r="N4" s="93"/>
-      <c r="P4" s="94" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
@@ -14190,400 +14203,418 @@
         <v>2</v>
       </c>
       <c r="B5" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="G5" s="146" t="s">
+        <v>603</v>
+      </c>
+      <c r="H5" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="I5" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="J5" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="169"/>
-      <c r="M5" s="92"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="94"/>
+      <c r="K5" s="142" t="s">
+        <v>601</v>
+      </c>
+      <c r="L5" s="160"/>
+      <c r="M5" s="90"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="92"/>
     </row>
     <row r="6" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
       <c r="A6" s="58">
         <v>3</v>
       </c>
       <c r="B6" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="141" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="62" t="s">
+      <c r="I6" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="J6" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="K6" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="L6" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="169" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="99"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="94"/>
+      <c r="M6" s="97"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="92"/>
     </row>
     <row r="7" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
       <c r="A7" s="58">
         <v>4</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="142" t="s">
+        <v>602</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="142" t="s">
+        <v>606</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I7" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="J7" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="K7" s="145" t="s">
+        <v>600</v>
+      </c>
+      <c r="L7" s="160"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="P7" s="52" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="169"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="102" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
       <c r="A8" s="58">
         <v>5</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>596</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="L8" s="161" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="M8" s="101"/>
+      <c r="N8" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="P8" s="51" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="170" t="s">
-        <v>161</v>
-      </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="P8" s="51" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
       <c r="A9" s="58">
         <v>6</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="143" t="s">
+        <v>597</v>
+      </c>
+      <c r="G9" s="143" t="s">
+        <v>607</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="144" t="s">
+        <v>598</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="161"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" s="95"/>
+    </row>
+    <row r="10" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A10" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="158"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="P10" s="103" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="73" t="s">
+    </row>
+    <row r="11" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A11" s="157" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="158"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="162" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="M11" s="104"/>
+      <c r="N11" s="105" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="P11" s="105"/>
+    </row>
+    <row r="12" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A12" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="N12" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="O12" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="95" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A13" s="157" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="170"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="97" t="s">
+      <c r="M13" s="104"/>
+      <c r="N13" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="P9" s="97"/>
-    </row>
-    <row r="10" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A10" s="166" t="s">
+      <c r="P13" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="105" t="s">
+    </row>
+    <row r="14" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
+      <c r="B14" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="P10" s="106" t="s">
+      <c r="C14" s="65" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A11" s="166" t="s">
+      <c r="D14" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="171" t="s">
+      <c r="E14" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="M11" s="107"/>
-      <c r="N11" s="108" t="s">
+      <c r="F14" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="P11" s="108"/>
-    </row>
-    <row r="12" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A12" s="166" t="s">
+      <c r="G14" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="109" t="s">
+      <c r="H14" s="60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A15" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="N12" s="51" t="s">
+      <c r="B15" s="78" t="s">
         <v>183</v>
-      </c>
-      <c r="O12" s="110" t="s">
-        <v>118</v>
-      </c>
-      <c r="P12" s="97" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A13" s="166" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="107"/>
-      <c r="N13" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="P13" s="112" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
-      <c r="B14" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A15" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1"/>
     <row r="17" spans="2:11" ht="31.95" customHeight="1">
-      <c r="B17" s="81"/>
+      <c r="B17" s="79"/>
     </row>
     <row r="18" spans="2:11" ht="31.95" customHeight="1">
-      <c r="B18" s="81"/>
+      <c r="B18" s="79"/>
       <c r="I18" s="59" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="31.95" customHeight="1">
+      <c r="B19" s="79"/>
+      <c r="C19" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="31.95" customHeight="1">
+      <c r="H20" s="69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="31.95" customHeight="1">
+      <c r="D21" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="31.95" customHeight="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="82" t="s">
+      <c r="H21" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="I21" s="110" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="J19" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="31.95" customHeight="1">
-      <c r="D21" s="83" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>207</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="I21" s="113" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
@@ -14591,18 +14622,8 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -14628,38 +14649,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="38" customFormat="1" ht="45">
-      <c r="A1" s="173" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="175"/>
+      <c r="A1" s="177" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="179"/>
     </row>
     <row r="2" spans="1:14" ht="31.95" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="176" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="177" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="178"/>
+        <v>92</v>
+      </c>
+      <c r="B2" s="180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="181" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182"/>
       <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:14" s="39" customFormat="1" ht="31.95" customHeight="1">
@@ -14667,34 +14688,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="J3" s="43" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="K3" s="43" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="M3" s="45"/>
     </row>
@@ -14703,34 +14724,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="45"/>
@@ -14743,31 +14764,31 @@
         <v>14</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="45"/>
@@ -14780,31 +14801,31 @@
         <v>27</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M6" s="52"/>
     </row>
@@ -14816,31 +14837,31 @@
         <v>19</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="K7" s="51" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M7" s="51"/>
     </row>
@@ -14849,37 +14870,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="J8" s="52" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K8" s="51" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="M8" s="48" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="N8" s="47"/>
     </row>
@@ -14889,7 +14910,7 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -14930,103 +14951,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="22.95" customHeight="1">
-      <c r="A1" s="179" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="181"/>
+      <c r="A1" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="185"/>
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
-      <c r="P1" s="182" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="182"/>
+      <c r="P1" s="186" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
       <c r="T1" s="33"/>
-      <c r="U1" s="182" t="s">
-        <v>258</v>
-      </c>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
+      <c r="U1" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
     </row>
     <row r="2" spans="1:26" ht="23.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="18" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16.2">
@@ -15034,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -15044,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="17"/>
@@ -15069,14 +15090,14 @@
         <v>44</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -15084,7 +15105,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -15105,7 +15126,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="P4" s="34"/>
       <c r="Q4" s="17"/>
@@ -15116,10 +15137,10 @@
         <v>2</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
@@ -15130,7 +15151,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -15140,7 +15161,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="17"/>
@@ -15151,7 +15172,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="17"/>
@@ -15174,7 +15195,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -15206,7 +15227,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
@@ -15218,7 +15239,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -15228,7 +15249,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="17"/>
@@ -15239,7 +15260,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="17"/>
@@ -15250,7 +15271,7 @@
         <v>5</v>
       </c>
       <c r="V7" s="36" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
@@ -15272,7 +15293,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="17"/>
@@ -15283,7 +15304,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="P8" s="34"/>
       <c r="Q8" s="17"/>
@@ -15294,7 +15315,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
@@ -15305,62 +15326,62 @@
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="27" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -15368,7 +15389,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -15378,7 +15399,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -15400,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
@@ -15412,7 +15433,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -15422,7 +15443,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -15433,7 +15454,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -15444,7 +15465,7 @@
         <v>2</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
@@ -15456,7 +15477,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -15466,7 +15487,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -15477,7 +15498,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -15488,7 +15509,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="25" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -15500,7 +15521,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -15510,7 +15531,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -15532,7 +15553,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -15544,7 +15565,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -15554,7 +15575,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -15565,7 +15586,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -15576,7 +15597,7 @@
         <v>5</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -15588,7 +15609,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -15598,7 +15619,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -15609,7 +15630,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -15620,7 +15641,7 @@
         <v>6</v>
       </c>
       <c r="V15" s="26" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -15631,30 +15652,30 @@
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="T16" s="17"/>
     </row>
@@ -15663,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -15673,7 +15694,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -15686,7 +15707,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -15696,7 +15717,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -15709,7 +15730,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -15719,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -15732,7 +15753,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -15755,7 +15776,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -15778,7 +15799,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -15788,7 +15809,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -15802,7 +15823,7 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -15836,24 +15857,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="183" t="s">
-        <v>307</v>
-      </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="185"/>
+      <c r="A1" s="187" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="189"/>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="22.05" customHeight="1">
       <c r="A2" s="13"/>
@@ -15882,7 +15903,7 @@
         <v>7.13</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="K2" s="13">
         <v>8.1999999999999993</v>
@@ -15902,22 +15923,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>30</v>
@@ -15926,10 +15947,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>9</v>
@@ -15946,34 +15967,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>18</v>
@@ -15988,22 +16009,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
@@ -16011,10 +16032,10 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -16029,26 +16050,26 @@
         <v>67</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -16060,16 +16081,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>67</v>
@@ -16090,16 +16111,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -16118,13 +16139,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -16148,7 +16169,7 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -16168,11 +16189,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -16192,11 +16213,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -16216,11 +16237,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -16459,7 +16480,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -16495,22 +16516,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="186" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
+      <c r="B1" s="190" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="187" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
+      <c r="K1" s="191" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -16521,66 +16542,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C3" s="6">
         <v>15</v>
@@ -16600,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L3" s="6">
         <v>13</v>
@@ -16652,7 +16673,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="L4" s="6">
         <v>6</v>
@@ -16684,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -16704,7 +16725,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -16758,7 +16779,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L6" s="6">
         <v>4</v>
@@ -16810,7 +16831,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
@@ -16862,7 +16883,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="L8" s="6">
         <v>2</v>
@@ -16894,7 +16915,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -16914,7 +16935,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -16932,7 +16953,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6">
         <v>6</v>
@@ -16946,7 +16967,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -16966,7 +16987,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L10" s="6">
         <v>1</v>
@@ -16992,7 +17013,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -17012,7 +17033,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
@@ -17038,7 +17059,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -17058,7 +17079,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -17084,7 +17105,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -17104,7 +17125,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -17150,7 +17171,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -17178,7 +17199,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -17198,7 +17219,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -17246,7 +17267,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -17294,7 +17315,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -17322,7 +17343,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -17342,7 +17363,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -17368,7 +17389,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -17390,7 +17411,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -17500,7 +17521,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -17610,7 +17631,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -17632,7 +17653,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -17654,7 +17675,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -17698,7 +17719,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -17720,7 +17741,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -17786,7 +17807,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -17808,7 +17829,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -17854,7 +17875,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -17876,7 +17897,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -17922,7 +17943,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -17946,7 +17967,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -17968,7 +17989,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -17990,7 +18011,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -18014,7 +18035,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -18108,7 +18129,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -18130,7 +18151,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -18178,7 +18199,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -18276,7 +18297,7 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -18312,22 +18333,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="186" t="s">
-        <v>383</v>
-      </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
+      <c r="B1" s="190" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="187" t="s">
-        <v>384</v>
-      </c>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
+      <c r="K1" s="191" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -18338,59 +18359,59 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
@@ -18417,7 +18438,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="L3" s="6">
         <v>3</v>
@@ -18449,7 +18470,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C4" s="6">
         <v>16</v>
@@ -18469,7 +18490,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -18521,7 +18542,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -18553,7 +18574,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -18573,7 +18594,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -18625,7 +18646,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -18657,7 +18678,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -18677,7 +18698,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -18709,7 +18730,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
@@ -18729,7 +18750,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -18747,7 +18768,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6">
         <v>6</v>
@@ -18781,7 +18802,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -18807,7 +18828,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -18827,7 +18848,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="L11" s="6">
         <v>2</v>
@@ -18873,7 +18894,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -18919,7 +18940,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -18945,7 +18966,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -18965,7 +18986,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -18991,7 +19012,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -19011,7 +19032,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -19057,7 +19078,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -19083,7 +19104,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -19103,7 +19124,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -19129,7 +19150,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -19149,7 +19170,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -19197,7 +19218,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -19243,7 +19264,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -19289,7 +19310,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -19315,7 +19336,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -19337,7 +19358,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -19425,7 +19446,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -19447,7 +19468,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -19491,7 +19512,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -19513,7 +19534,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -19535,7 +19556,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -19557,7 +19578,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -19603,7 +19624,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -19669,7 +19690,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -19691,7 +19712,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -19737,7 +19758,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -19783,7 +19804,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -19805,7 +19826,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -19877,7 +19898,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -19901,7 +19922,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -19947,7 +19968,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -19971,7 +19992,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C51" s="6">
         <v>0</v>
@@ -20015,7 +20036,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -20108,7 +20129,7 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -20144,22 +20165,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="186" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
+      <c r="B1" s="190" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="187" t="s">
-        <v>410</v>
-      </c>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
+      <c r="K1" s="191" t="s">
+        <v>398</v>
+      </c>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -20170,66 +20191,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C3" s="6">
         <v>11</v>
@@ -20249,7 +20270,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="L3" s="6">
         <v>8</v>
@@ -20297,7 +20318,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="L4" s="6">
         <v>9</v>
@@ -20345,7 +20366,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -20373,7 +20394,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -20393,7 +20414,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L6" s="6">
         <v>2</v>
@@ -20441,7 +20462,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="L7" s="6">
         <v>2</v>
@@ -20469,7 +20490,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -20489,7 +20510,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -20517,7 +20538,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -20537,7 +20558,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -20555,7 +20576,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -20585,7 +20606,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -20611,7 +20632,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -20631,7 +20652,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -20677,7 +20698,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -20725,7 +20746,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -20751,7 +20772,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -20771,7 +20792,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -20799,7 +20820,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -20819,7 +20840,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -20847,7 +20868,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -20867,7 +20888,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -20913,7 +20934,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -20939,7 +20960,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -20959,7 +20980,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -20987,7 +21008,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -21031,7 +21052,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -21092,7 +21113,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="K23" s="3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.95" customHeight="1">
@@ -21122,7 +21143,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -21212,7 +21233,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -21234,7 +21255,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -21344,7 +21365,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -21388,7 +21409,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -21410,7 +21431,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -21432,7 +21453,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -21566,7 +21587,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -21588,7 +21609,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -21612,7 +21633,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -21634,7 +21655,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -21680,7 +21701,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -21726,7 +21747,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -21772,7 +21793,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
@@ -21796,7 +21817,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -21820,7 +21841,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C56" s="6">
         <v>0</v>
@@ -21842,7 +21863,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C57" s="6">
         <v>0</v>
@@ -21867,7 +21888,7 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="S2:U2"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -21903,25 +21924,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="189" t="s">
-        <v>428</v>
-      </c>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="191"/>
+      <c r="B1" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="192" t="s">
-        <v>429</v>
-      </c>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="194"/>
+      <c r="K1" s="196" t="s">
+        <v>417</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -21929,66 +21950,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="R2" s="5"/>
-      <c r="S2" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
+      <c r="S2" s="192" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C3" s="6">
         <v>12</v>
@@ -22008,7 +22029,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L3" s="6">
         <v>7</v>
@@ -22040,7 +22061,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C4" s="6">
         <v>9</v>
@@ -22060,7 +22081,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="L4" s="6">
         <v>1</v>
@@ -22112,7 +22133,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -22144,7 +22165,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -22164,7 +22185,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="L6" s="6">
         <v>1</v>
@@ -22196,7 +22217,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -22216,7 +22237,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L7" s="6">
         <v>3</v>
@@ -22268,7 +22289,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="L8" s="6">
         <v>1</v>
@@ -22300,7 +22321,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -22320,7 +22341,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -22338,7 +22359,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="T9" s="6">
         <v>7</v>
@@ -22372,7 +22393,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="L10" s="6">
         <v>2</v>
@@ -22398,7 +22419,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -22418,7 +22439,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -22444,7 +22465,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -22464,7 +22485,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="L12" s="6">
         <v>2</v>
@@ -22490,7 +22511,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -22510,7 +22531,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="L13" s="6">
         <v>1</v>
@@ -22536,7 +22557,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -22556,7 +22577,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="L14" s="6">
         <v>2</v>
@@ -22582,7 +22603,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -22602,7 +22623,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="L15" s="6">
         <v>2</v>
@@ -22628,7 +22649,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -22648,7 +22669,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -22674,7 +22695,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -22694,7 +22715,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="L17" s="6">
         <v>1</v>
@@ -22740,7 +22761,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -22766,7 +22787,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -22788,7 +22809,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="L19" s="6">
         <v>4</v>
@@ -22814,7 +22835,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -22834,7 +22855,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="L20" s="6">
         <v>2</v>
@@ -22880,7 +22901,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -22926,7 +22947,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="L22" s="6">
         <v>2</v>
@@ -22952,7 +22973,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -22972,7 +22993,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -23018,7 +23039,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -23064,7 +23085,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="L25" s="6">
         <v>1</v>
@@ -23110,7 +23131,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -23156,7 +23177,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -23202,7 +23223,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -23228,7 +23249,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -23248,7 +23269,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="L29" s="6">
         <v>1</v>
@@ -23296,7 +23317,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -23322,7 +23343,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -23342,7 +23363,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="L31" s="6">
         <v>1</v>
@@ -23368,7 +23389,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -23388,7 +23409,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -23438,7 +23459,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -23486,7 +23507,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -23514,7 +23535,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -23534,7 +23555,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -23584,7 +23605,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L36" s="6">
         <v>0</v>
@@ -23612,7 +23633,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -23632,7 +23653,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -23680,7 +23701,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -23708,7 +23729,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -23728,7 +23749,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -23778,7 +23799,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -23806,7 +23827,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -23828,7 +23849,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -23850,7 +23871,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -23872,7 +23893,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -23896,7 +23917,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -23918,7 +23939,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -23986,7 +24007,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C49" s="6">
         <v>0</v>
@@ -24008,7 +24029,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -24078,7 +24099,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -24142,28 +24163,28 @@
       <c r="H55" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A57" s="195" t="s">
-        <v>195</v>
-      </c>
-      <c r="B57" s="195"/>
-      <c r="C57" s="195"/>
-      <c r="D57" s="195"/>
-      <c r="E57" s="195"/>
-      <c r="F57" s="195"/>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
+      <c r="A57" s="199" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="199"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
     </row>
     <row r="58" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A58" s="195" t="s">
-        <v>478</v>
-      </c>
-      <c r="B58" s="195"/>
-      <c r="C58" s="195"/>
-      <c r="D58" s="195"/>
-      <c r="E58" s="195"/>
-      <c r="F58" s="195"/>
-      <c r="G58" s="195"/>
-      <c r="H58" s="195"/>
+      <c r="A58" s="199" t="s">
+        <v>466</v>
+      </c>
+      <c r="B58" s="199"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="199"/>
+      <c r="H58" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -24173,7 +24194,7 @@
     <mergeCell ref="A57:H57"/>
     <mergeCell ref="A58:H58"/>
   </mergeCells>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
